--- a/biology/Mycologie/Nivatogastrium/Nivatogastrium.xlsx
+++ b/biology/Mycologie/Nivatogastrium/Nivatogastrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nivatogastrium est un genre de champignons de la famille des Strophariaceae. Il contient quatre espèces nord-américaines et néo-zélandaises.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit en premier par les mycologues américains Rolf Singer et Alexander Hanchett Smith en 1959, qui établissent Nivatogastrium nubigenum (alors connu comme Secotium nubigenum Harkness) comme le type et seule espèces[1]. En 1971, Egon Horak décrit les espèces Nivatogastrium baylisianum, Nivatogastrium lignicola et Nivatogastrium sulcatum de Nouvelle-Zélande[2].
-Le nom générique est formé de deux mots, nivatus and gastrion. Le premier se réfère à la localité type, la Sierra Nevada en Californie, et au fait que la couleur du basidiocarpe mature devient blanche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit en premier par les mycologues américains Rolf Singer et Alexander Hanchett Smith en 1959, qui établissent Nivatogastrium nubigenum (alors connu comme Secotium nubigenum Harkness) comme le type et seule espèces. En 1971, Egon Horak décrit les espèces Nivatogastrium baylisianum, Nivatogastrium lignicola et Nivatogastrium sulcatum de Nouvelle-Zélande.
+Le nom générique est formé de deux mots, nivatus and gastrion. Le premier se réfère à la localité type, la Sierra Nevada en Californie, et au fait que la couleur du basidiocarpe mature devient blanche.
 </t>
         </is>
       </c>
@@ -543,19 +557,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2014) :
 Nivatogastrium baylisianum
 Nivatogastrium lignicola
 Nivatogastrium nubigenum
 Nivatogastrium sulcatum
-Selon Index Fungorum                                      (23 mars 2014)[4] :
+Selon Index Fungorum                                      (23 mars 2014) :
 Nivatogastrium baylisianum E. Horak 1971
 Nivatogastrium lignicola E. Horak 1971
 Nivatogastrium nubigenum (Harkn.) Singer &amp; A.H. Sm. 1959
 Nivatogastrium sulcatum E. Horak 1971
-Selon NCBI  (23 mars 2014)[5] :
+Selon NCBI  (23 mars 2014) :
 Nivatogastrium nubigenum
 </t>
         </is>
